--- a/Our_Labs/Lab_8/Obliczenia_właściwe.xlsx
+++ b/Our_Labs/Lab_8/Obliczenia_właściwe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107AC3DB-5AF4-41DD-A6F1-56606FE874C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6897441-3960-4D80-96DB-53AFF733870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D77401B7-C84D-42A8-B38D-6A277E354964}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D77401B7-C84D-42A8-B38D-6A277E354964}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>U[kV]</t>
   </si>
@@ -377,6 +399,18 @@
   <si>
     <t>L=30mm</t>
   </si>
+  <si>
+    <t>Regline</t>
+  </si>
+  <si>
+    <t>R, mm</t>
+  </si>
+  <si>
+    <t>e/m, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u(e/m), C </t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,6 +533,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -638,6 +675,19 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$25:$D$36</c:f>
@@ -803,7 +853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="560693448"/>
@@ -866,7 +916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="560689848"/>
@@ -916,7 +966,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1001,7 +1051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1058,6 +1108,19 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$41:$D$50</c:f>
@@ -1211,7 +1274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572364920"/>
@@ -1274,7 +1337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572361680"/>
@@ -1322,7 +1385,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1407,7 +1470,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1454,6 +1517,19 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$57:$D$66</c:f>
@@ -1607,7 +1683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572356640"/>
@@ -1670,7 +1746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572360960"/>
@@ -1718,7 +1794,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3813,25 +3889,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB0290-9560-4B13-B0F0-95502C089148}">
-  <dimension ref="A2:L70"/>
+  <dimension ref="A2:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="C57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75:J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
@@ -3860,7 +3936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
@@ -3881,7 +3957,7 @@
         <v>3.4669000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -3910,7 +3986,7 @@
         <v>2.0662724000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>2</v>
       </c>
@@ -3939,7 +4015,7 @@
         <v>2.1737462999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -3968,7 +4044,7 @@
         <v>2.288154</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -3997,7 +4073,7 @@
         <v>2.3574920000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>5</v>
       </c>
@@ -4026,7 +4102,7 @@
         <v>2.4025616999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>6</v>
       </c>
@@ -4055,7 +4131,7 @@
         <v>2.4649658999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>7</v>
       </c>
@@ -4084,7 +4160,7 @@
         <v>2.5343039000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>8</v>
       </c>
@@ -4113,7 +4189,7 @@
         <v>2.6071088000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>9</v>
       </c>
@@ -4142,7 +4218,7 @@
         <v>2.6799137000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>10</v>
       </c>
@@ -4171,7 +4247,7 @@
         <v>2.7388510000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <v>11</v>
       </c>
@@ -4200,7 +4276,7 @@
         <v>2.7943214000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
         <v>12</v>
       </c>
@@ -4229,7 +4305,7 @@
         <v>2.8463248999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
@@ -4252,7 +4328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -4286,7 +4362,7 @@
         <v>141.42135623730954</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -4320,7 +4396,7 @@
         <v>119.81531570105395</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -4354,12 +4430,12 @@
         <v>103.23759005323588</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
@@ -4391,8 +4467,12 @@
       <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -4419,7 +4499,7 @@
         <v>0.1152760040370476</v>
       </c>
       <c r="I25">
-        <f>E25-L$25*D25-L$27</f>
+        <f t="shared" ref="I25:I36" si="9">E25-L$25*D25-L$27</f>
         <v>1.4661387911608911E-2</v>
       </c>
       <c r="J25">
@@ -4433,8 +4513,15 @@
         <f>(12*H38-E38*D38)/(12*G38-D38^2)</f>
         <v>50.336237578898121</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V25" cm="1">
+        <f t="array" ref="V25:W29">LINEST(E25:E36,D25:D36,TRUE,TRUE)</f>
+        <v>50.336237578898</v>
+      </c>
+      <c r="W25">
+        <v>-3.2394857226123452E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>2</v>
       </c>
@@ -4457,15 +4544,15 @@
         <v>2.8197894601443198E-3</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26:H36" si="9">D26*E26</f>
+        <f t="shared" ref="H26:H36" si="10">D26*E26</f>
         <v>0.13806439349294808</v>
       </c>
       <c r="I26">
-        <f>E26-L$25*D26-L$27</f>
+        <f t="shared" si="9"/>
         <v>-4.0544416638298178E-2</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:J36" si="10">I26^2</f>
+        <f t="shared" ref="J26:J36" si="11">I26^2</f>
         <v>1.64384972053991E-3</v>
       </c>
       <c r="K26" t="s">
@@ -4475,8 +4562,14 @@
         <f>SQRT((1/8)*((J38)/(12*G38-D38^2)))</f>
         <v>0.4027343742968742</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>1.247826819677645</v>
+      </c>
+      <c r="W26">
+        <v>8.9214357415985351E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>3</v>
       </c>
@@ -4484,7 +4577,7 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C36" si="11">E6/1000</f>
+        <f t="shared" ref="C27:C36" si="12">E6/1000</f>
         <v>1.7022479000000001E-3</v>
       </c>
       <c r="D27" s="7">
@@ -4503,7 +4596,7 @@
         <v>0.16226828313104708</v>
       </c>
       <c r="I27">
-        <f>E27-L$25*D27-L$27</f>
+        <f t="shared" si="9"/>
         <v>-8.4739018203975516E-2</v>
       </c>
       <c r="J27">
@@ -4517,8 +4610,14 @@
         <f>(G38*E38-D38*H38)/(12*G38-D38^2)</f>
         <v>-3.2394857226128823E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>0.99389217757066117</v>
+      </c>
+      <c r="W27">
+        <v>5.910731282660172E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>4</v>
       </c>
@@ -4526,11 +4625,11 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7334500000000001E-3</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" ref="D26:D36" si="12">(B28^2)*(C28^2)</f>
+        <f t="shared" ref="D28:D36" si="13">(B28^2)*(C28^2)</f>
         <v>6.0096978050000041E-2</v>
       </c>
       <c r="E28">
@@ -4541,15 +4640,15 @@
         <v>3.6116467707421867E-3</v>
       </c>
       <c r="H28" s="7">
+        <f t="shared" si="10"/>
+        <v>0.18029093415000014</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="9"/>
-        <v>0.18029093415000014</v>
-      </c>
-      <c r="I28">
-        <f>E28-L$25*D28-L$27</f>
         <v>7.339092327501226E-3</v>
       </c>
       <c r="J28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3862276191587362E-5</v>
       </c>
       <c r="K28" t="s">
@@ -4559,8 +4658,14 @@
         <f>SQRT((1/8)*((G38*J38)/(12*G38-D38^2)))</f>
         <v>9.9744683875553006E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>1627.2447162126573</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>5</v>
       </c>
@@ -4568,11 +4673,11 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7750528000000001E-3</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.3016248855756851E-2</v>
       </c>
       <c r="E29">
@@ -4583,19 +4688,25 @@
         <v>3.971047619850677E-3</v>
       </c>
       <c r="H29" s="7">
+        <f t="shared" si="10"/>
+        <v>0.20165199633842193</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="9"/>
-        <v>0.20165199633842193</v>
-      </c>
-      <c r="I29">
-        <f>E29-L$25*D29-L$27</f>
         <v>6.0393983491785305E-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6474332420060361E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>5.6850632557041827</v>
+      </c>
+      <c r="W29">
+        <v>3.4936744295817564E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -4603,11 +4714,11 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8409239000000003E-3</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.7780016111824257E-2</v>
       </c>
       <c r="E30">
@@ -4618,11 +4729,11 @@
         <v>4.5941305841191559E-3</v>
       </c>
       <c r="H30" s="7">
+        <f t="shared" si="10"/>
+        <v>0.23045205478020248</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="9"/>
-        <v>0.23045205478020248</v>
-      </c>
-      <c r="I30">
-        <f>E30-L$25*D30-L$27</f>
         <v>2.0603863119800489E-2</v>
       </c>
       <c r="J30">
@@ -4630,7 +4741,7 @@
         <v>4.2451917545947474E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>7</v>
       </c>
@@ -4638,11 +4749,11 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8721260000000002E-3</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0097115197520057E-2</v>
       </c>
       <c r="E31">
@@ -4653,19 +4764,19 @@
         <v>4.913605559014397E-3</v>
       </c>
       <c r="H31" s="7">
+        <f t="shared" si="10"/>
+        <v>0.2523496147110722</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="9"/>
-        <v>0.2523496147110722</v>
-      </c>
-      <c r="I31">
-        <f>E31-L$25*D31-L$27</f>
         <v>0.10396981304836932</v>
       </c>
       <c r="J31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0809722025312867E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>8</v>
       </c>
@@ -4673,11 +4784,11 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9622654000000001E-3</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7009710000743248E-2</v>
       </c>
       <c r="E32">
@@ -4688,19 +4799,19 @@
         <v>5.9304954343985744E-3</v>
       </c>
       <c r="H32" s="7">
+        <f t="shared" si="10"/>
+        <v>0.29263689800282433</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="9"/>
-        <v>0.29263689800282433</v>
-      </c>
-      <c r="I32">
-        <f>E32-L$25*D32-L$27</f>
         <v>-4.3984201253329983E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9346099598934348E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>9</v>
       </c>
@@ -4708,11 +4819,11 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0142688999999999E-3</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1145584030144241E-2</v>
       </c>
       <c r="E33">
@@ -4723,19 +4834,19 @@
         <v>6.5846058075932001E-3</v>
       </c>
       <c r="H33" s="7">
+        <f t="shared" si="10"/>
+        <v>0.32458233612057696</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="9"/>
-        <v>0.32458233612057696</v>
-      </c>
-      <c r="I33">
-        <f>E33-L$25*D33-L$27</f>
         <v>-5.2168538993652772E-2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7215564607322696E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>10</v>
       </c>
@@ -4743,11 +4854,11 @@
         <v>141.42135623730954</v>
       </c>
       <c r="C34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0385372000000001E-3</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.3112678315676841E-2</v>
       </c>
       <c r="E34">
@@ -4758,19 +4869,19 @@
         <v>6.9077172968051792E-3</v>
       </c>
       <c r="H34" s="7">
+        <f t="shared" si="10"/>
+        <v>0.34907324892584274</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="9"/>
-        <v>0.34907324892584274</v>
-      </c>
-      <c r="I34">
-        <f>E34-L$25*D34-L$27</f>
         <v>4.88153357096857E-2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3829370004493158E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>11</v>
       </c>
@@ -4778,11 +4889,11 @@
         <v>141</v>
       </c>
       <c r="C35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1182759000000001E-3</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9207891728582234E-2</v>
       </c>
       <c r="E35">
@@ -4793,19 +4904,19 @@
         <v>7.9580479466584506E-3</v>
       </c>
       <c r="H35" s="7">
+        <f t="shared" si="10"/>
+        <v>0.39251472360576184</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="9"/>
-        <v>0.39251472360576184</v>
-      </c>
-      <c r="I35">
-        <f>E35-L$25*D35-L$27</f>
         <v>-5.7994774736406865E-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3633938967265759E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>12</v>
       </c>
@@ -4813,11 +4924,11 @@
         <v>141</v>
       </c>
       <c r="C36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1460111000000002E-3</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1559234553146754E-2</v>
       </c>
       <c r="E36">
@@ -4828,19 +4939,19 @@
         <v>8.3830934319581423E-3</v>
       </c>
       <c r="H36" s="7">
+        <f t="shared" si="10"/>
+        <v>0.42117247894447501</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="9"/>
-        <v>0.42117247894447501</v>
-      </c>
-      <c r="I36">
-        <f>E36-L$25*D36-L$27</f>
         <v>2.3647474216875561E-2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.592030368377944E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -4865,12 +4976,25 @@
         <f>SUM(J25:J36)</f>
         <v>3.4936744295817626E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V38" cm="1">
+        <f t="array" ref="V38:W42">LINEST(E41:E52,D41:D52,TRUE,TRUE)</f>
+        <v>52.013267557163637</v>
+      </c>
+      <c r="W38">
+        <v>-5.5955810031610209E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>1.2172444320471036</v>
+      </c>
+      <c r="W39">
+        <v>8.4764155070969155E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -4899,8 +5023,14 @@
       <c r="K40" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>0.99455302651467348</v>
+      </c>
+      <c r="W40">
+        <v>5.5818176552148144E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>120</v>
       </c>
@@ -4916,7 +5046,7 @@
         <v>2.4</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" ref="G41:G52" si="13">D41^2</f>
+        <f t="shared" ref="G41:G52" si="14">D41^2</f>
         <v>2.310642221928145E-3</v>
       </c>
       <c r="H41" s="7">
@@ -4924,7 +5054,7 @@
         <v>0.1153659360396565</v>
       </c>
       <c r="I41" s="8">
-        <f>E41-L$41*D41-L$43</f>
+        <f t="shared" ref="I41:I50" si="15">E41-L$41*D41-L$43</f>
         <v>-4.4277230890576703E-2</v>
       </c>
       <c r="J41">
@@ -4938,36 +5068,42 @@
         <f>(12*H54-E54*D54)/(12*G54-D54^2)</f>
         <v>52.013267557163793</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>1825.8818942186413</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>120</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" ref="C42:C52" si="14">G5/1000</f>
+        <f t="shared" ref="C42:C52" si="16">G5/1000</f>
         <v>1.8686591000000002E-3</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" ref="D42:D50" si="15">(B42^2)*(C42^2)</f>
+        <f t="shared" ref="D42:D49" si="17">(B42^2)*(C42^2)</f>
         <v>5.0283170380984475E-2</v>
       </c>
       <c r="E42">
         <v>2.6</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5283972235631146E-3</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" ref="H42:H52" si="16">D42*E42</f>
+        <f t="shared" ref="H42:H52" si="18">D42*E42</f>
         <v>0.13073624299055964</v>
       </c>
       <c r="I42" s="8">
-        <f>E42-L$41*D42-L$43</f>
+        <f t="shared" si="15"/>
         <v>4.0563815383032185E-2</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:J52" si="17">I42^2</f>
+        <f t="shared" ref="J42:J52" si="19">I42^2</f>
         <v>1.6454231184287185E-3</v>
       </c>
       <c r="K42" t="s">
@@ -4977,36 +5113,42 @@
         <f>SQRT((1/8)*((J54)/(12*G54-D54^2)))</f>
         <v>0.39286395113184475</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>5.6888433116639332</v>
+      </c>
+      <c r="W42">
+        <v>3.1156688336067807E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>120</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.9761330000000001E-3</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.623346352512161E-2</v>
       </c>
       <c r="E43">
         <v>2.8</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1622024200311824E-3</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.1574536978703405</v>
       </c>
       <c r="I43" s="8">
-        <f>E43-L$41*D43-L$43</f>
+        <f t="shared" si="15"/>
         <v>-6.8930373966530262E-2</v>
       </c>
       <c r="J43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.751396455165713E-3</v>
       </c>
       <c r="K43" t="s">
@@ -5017,7 +5159,7 @@
         <v>-5.595581003163138E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>(B41^2)*(C41^2)</f>
         <v>4.8069140016523543E-2</v>
@@ -5026,30 +5168,30 @@
         <v>120</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.0212027E-3</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.882774910461698E-2</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4607040647157638E-3</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.17648324731385095</v>
       </c>
       <c r="I44" s="8">
-        <f>E44-L$41*D44-L$43</f>
+        <f t="shared" si="15"/>
         <v>-3.8676439325141879E-3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.4958669588713812E-5</v>
       </c>
       <c r="K44" t="s">
@@ -5060,172 +5202,172 @@
         <v>9.4769206397010239E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>120</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.0870737999999999E-3</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.2724629471708732E-2</v>
       </c>
       <c r="E45">
         <v>3.2</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.9343791423631517E-3</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.20071881430946795</v>
       </c>
       <c r="I45" s="8">
-        <f>E45-L$41*D45-L$43</f>
+        <f t="shared" si="15"/>
         <v>-6.5571251043163095E-3</v>
       </c>
       <c r="J45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.2995889633655173E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>120</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.1286766000000001E-3</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.5250202570380875E-2</v>
       </c>
       <c r="E46">
         <v>3.4</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2575889354757391E-3</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.22185068873929498</v>
       </c>
       <c r="I46" s="8">
-        <f>E46-L$41*D46-L$43</f>
+        <f t="shared" si="15"/>
         <v>6.2079565579274153E-2</v>
       </c>
       <c r="J46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.8538724625114002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>120</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.184147E-3</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.8695172893569592E-2</v>
       </c>
       <c r="E47">
         <v>3.6</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.7190267788774186E-3</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.24730262241685053</v>
       </c>
       <c r="I47" s="8">
-        <f>E47-L$41*D47-L$43</f>
+        <f t="shared" si="15"/>
         <v>8.2895402432770687E-2</v>
       </c>
       <c r="J47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.8716477444910043E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>120</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.2846871000000001E-3</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.5165050086652307E-2</v>
       </c>
       <c r="E48">
         <v>3.8</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.6497847545289503E-3</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.28562719032927875</v>
       </c>
       <c r="I48" s="8">
-        <f>E48-L$41*D48-L$43</f>
+        <f t="shared" si="15"/>
         <v>-5.3624051073032732E-2</v>
       </c>
       <c r="J48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.8755388534832229E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>120</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.3228230000000003E-3</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.7695296326337621E-2</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.0365590712374122E-3</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.31078118530535048</v>
       </c>
       <c r="I49" s="8">
-        <f>E49-L$41*D49-L$43</f>
+        <f t="shared" si="15"/>
         <v>1.476957427670763E-2</v>
       </c>
       <c r="J49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.181403243151837E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>120</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.3713596000000002E-3</v>
       </c>
       <c r="D50" s="7">
@@ -5236,87 +5378,87 @@
         <v>4.2</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.5571429381766598E-3</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.34009998739993552</v>
       </c>
       <c r="I50" s="8">
-        <f>E50-L$41*D50-L$43</f>
+        <f t="shared" si="15"/>
         <v>4.4119705074279501E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9465483758414044E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>120</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4614989999999998E-3</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" ref="D51:D52" si="18">(B51^2)*(C51^2)</f>
+        <f t="shared" ref="D51:D52" si="20">(B51^2)*(C51^2)</f>
         <v>8.7249273508814382E-2</v>
       </c>
       <c r="E51">
         <v>4.4000000000000004</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.6124357278158994E-3</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.3838968034387833</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" ref="I51:I52" si="19">E51-L$41*D51-L$43</f>
+        <f t="shared" ref="I51:I52" si="21">E51-L$41*D51-L$43</f>
         <v>-8.2163997150493856E-2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.7509224277463621E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>120</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4892342E-3</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.9226531395274811E-2</v>
       </c>
       <c r="E52">
         <v>4.5999999999999996</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.9613739048319618E-3</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.4104420444182641</v>
       </c>
       <c r="I52" s="8">
+        <f t="shared" si="21"/>
+        <v>1.4992359371526952E-2</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="19"/>
-        <v>1.4992359371526952E-2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="17"/>
         <v>2.2477083952501201E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>19</v>
       </c>
@@ -5341,14 +5483,27 @@
         <f>SUM(J41:J52)</f>
         <v>3.1156688336067828E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V54" cm="1">
+        <f t="array" ref="V54:W58">LINEST(E57:E68,D57:D68,TRUE,TRUE)</f>
+        <v>55.194225508065671</v>
+      </c>
+      <c r="W54">
+        <v>-0.18164061981529178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>1.0955351925928241</v>
+      </c>
+      <c r="W55">
+        <v>7.43447464230724E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>3</v>
       </c>
@@ -5380,8 +5535,14 @@
       <c r="K56" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>0.99607574028541568</v>
+      </c>
+      <c r="W56">
+        <v>4.7378017653150188E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>1</v>
       </c>
@@ -5400,7 +5561,7 @@
         <v>2.4</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" ref="G57:G68" si="20">D57^2</f>
+        <f t="shared" ref="G57:G68" si="22">D57^2</f>
         <v>2.0516307401693495E-3</v>
       </c>
       <c r="H57" s="7">
@@ -5408,7 +5569,7 @@
         <v>0.10870783349591441</v>
       </c>
       <c r="I57" s="8">
-        <f>E57-L$57*D57-L$59</f>
+        <f t="shared" ref="I57:I68" si="23">E57-L$57*D57-L$59</f>
         <v>0.23115481502610827</v>
       </c>
       <c r="J57">
@@ -5422,8 +5583,14 @@
         <f>(10*H70-E70*D70)/(10*G70-D70^2)</f>
         <v>51.892911026564079</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>2538.2513205829828</v>
+      </c>
+      <c r="W57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>2</v>
       </c>
@@ -5431,30 +5598,30 @@
         <v>103</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" ref="C58:C68" si="21">I5/1000</f>
+        <f t="shared" ref="C58:C68" si="24">I5/1000</f>
         <v>2.1737462999999999E-3</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" ref="D58:D68" si="22">(B58^2)*(C58^2)</f>
+        <f t="shared" ref="D58:D68" si="25">(B58^2)*(C58^2)</f>
         <v>5.0129360110485979E-2</v>
       </c>
       <c r="E58">
         <v>2.6</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.5129527450867828E-3</v>
       </c>
       <c r="H58" s="7">
-        <f t="shared" ref="H58:H68" si="23">D58*E58</f>
+        <f t="shared" ref="H58:H68" si="26">D58*E58</f>
         <v>0.13033633628726354</v>
       </c>
       <c r="I58" s="8">
-        <f>E58-L$57*D58-L$59</f>
+        <f t="shared" si="23"/>
         <v>0.1802821957832477</v>
       </c>
       <c r="J58">
-        <f t="shared" ref="J58:J68" si="24">I58^2</f>
+        <f t="shared" ref="J58:J68" si="27">I58^2</f>
         <v>3.2501670116429252E-2</v>
       </c>
       <c r="K58" t="s">
@@ -5464,8 +5631,14 @@
         <f>SQRT((1/8)*((J70)/(12*G70-D70^2)))</f>
         <v>1.8653531177725211</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <v>5.6975532344325783</v>
+      </c>
+      <c r="W58">
+        <v>2.2446765567422106E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>3</v>
       </c>
@@ -5473,30 +5646,30 @@
         <v>103</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2881540000000001E-3</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5.5544997352339052E-2</v>
       </c>
       <c r="E59">
         <v>2.8</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.0852467308713524E-3</v>
       </c>
       <c r="H59" s="7">
+        <f t="shared" si="26"/>
+        <v>0.15552599258654934</v>
+      </c>
+      <c r="I59" s="8">
         <f t="shared" si="23"/>
-        <v>0.15552599258654934</v>
-      </c>
-      <c r="I59" s="8">
-        <f>E59-L$57*D59-L$59</f>
         <v>9.9249014239618988E-2</v>
       </c>
       <c r="J59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>9.8503668275360928E-3</v>
       </c>
       <c r="K59" t="s">
@@ -5507,7 +5680,7 @@
         <v>-0.18164061981528715</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>4</v>
       </c>
@@ -5515,30 +5688,30 @@
         <v>103</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.3574920000000001E-3</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5.8962366335448983E-2</v>
       </c>
       <c r="E60">
         <v>3</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.4765606438756876E-3</v>
       </c>
       <c r="H60" s="7">
+        <f t="shared" si="26"/>
+        <v>0.17688709900634694</v>
+      </c>
+      <c r="I60" s="8">
         <f t="shared" si="23"/>
-        <v>0.17688709900634694</v>
-      </c>
-      <c r="I60" s="8">
-        <f>E60-L$57*D60-L$59</f>
         <v>0.12191178965415597</v>
       </c>
       <c r="J60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.4862484456679171E-2</v>
       </c>
       <c r="K60" t="s">
@@ -5549,7 +5722,7 @@
         <v>0.4385060924080515</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>5</v>
       </c>
@@ -5557,34 +5730,34 @@
         <v>103</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4025616999999995E-3</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6.123835958095377E-2</v>
       </c>
       <c r="E61">
         <v>3.2</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.7501366841661923E-3</v>
       </c>
       <c r="H61" s="7">
+        <f t="shared" si="26"/>
+        <v>0.19596275065905208</v>
+      </c>
+      <c r="I61" s="8">
         <f t="shared" si="23"/>
-        <v>0.19596275065905208</v>
-      </c>
-      <c r="I61" s="8">
-        <f>E61-L$57*D61-L$59</f>
         <v>0.20380387466811525</v>
       </c>
       <c r="J61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.1536019329736829E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>6</v>
       </c>
@@ -5592,34 +5765,34 @@
         <v>103</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.4649658999999998E-3</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6.4460887526519239E-2</v>
       </c>
       <c r="E62">
         <v>3.4</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.1552060207065639E-3</v>
       </c>
       <c r="H62" s="7">
+        <f t="shared" si="26"/>
+        <v>0.21916701759016541</v>
+      </c>
+      <c r="I62" s="8">
         <f t="shared" si="23"/>
-        <v>0.21916701759016541</v>
-      </c>
-      <c r="I62" s="8">
-        <f>E62-L$57*D62-L$59</f>
         <v>0.23657751870826996</v>
       </c>
       <c r="J62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.5968922358161824E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>7</v>
       </c>
@@ -5627,34 +5800,34 @@
         <v>103</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.5343039000000002E-3</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6.8138384596403243E-2</v>
       </c>
       <c r="E63">
         <v>3.6</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.642839455407363E-3</v>
       </c>
       <c r="H63" s="7">
+        <f t="shared" si="26"/>
+        <v>0.24529818454705168</v>
+      </c>
+      <c r="I63" s="8">
         <f t="shared" si="23"/>
-        <v>0.24529818454705168</v>
-      </c>
-      <c r="I63" s="8">
-        <f>E63-L$57*D63-L$59</f>
         <v>0.24574149046032925</v>
       </c>
       <c r="J63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.0388880133664093E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>8</v>
       </c>
@@ -5662,34 +5835,34 @@
         <v>103</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6071088000000002E-3</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7.2109545874052217E-2</v>
       </c>
       <c r="E64">
         <v>3.8</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.1997866061620412E-3</v>
       </c>
       <c r="H64" s="7">
+        <f t="shared" si="26"/>
+        <v>0.27401627432139841</v>
+      </c>
+      <c r="I64" s="8">
         <f t="shared" si="23"/>
-        <v>0.27401627432139841</v>
-      </c>
-      <c r="I64" s="8">
-        <f>E64-L$57*D64-L$59</f>
         <v>0.23966637160715434</v>
       </c>
       <c r="J64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.74399696793386E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>9</v>
       </c>
@@ -5697,34 +5870,34 @@
         <v>103</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6799137000000002E-3</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7.6193174295100544E-2</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.8053998091635705E-3</v>
       </c>
       <c r="H65" s="7">
+        <f t="shared" si="26"/>
+        <v>0.30477269718040217</v>
+      </c>
+      <c r="I65" s="8">
         <f t="shared" si="23"/>
-        <v>0.30477269718040217</v>
-      </c>
-      <c r="I65" s="8">
-        <f>E65-L$57*D65-L$59</f>
         <v>0.22775500528814543</v>
       </c>
       <c r="J65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.1872342433803155E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>10</v>
       </c>
@@ -5732,34 +5905,34 @@
         <v>103</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.7388510000000005E-3</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7.9581342625332438E-2</v>
       </c>
       <c r="E66">
         <v>4.2</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.3331900940505536E-3</v>
       </c>
       <c r="H66" s="7">
+        <f t="shared" si="26"/>
+        <v>0.33424163902639625</v>
+      </c>
+      <c r="I66" s="8">
         <f t="shared" si="23"/>
-        <v>0.33424163902639625</v>
-      </c>
-      <c r="I66" s="8">
-        <f>E66-L$57*D66-L$59</f>
         <v>0.2519330875843997</v>
       </c>
       <c r="J66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.3470280619808805E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>11</v>
       </c>
@@ -5767,34 +5940,34 @@
         <v>103</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.7943214000000004E-3</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>8.2837534205656885E-2</v>
       </c>
       <c r="E67">
         <v>4.4000000000000004</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.8620570732733747E-3</v>
       </c>
       <c r="H67" s="7">
+        <f t="shared" si="26"/>
+        <v>0.36448515050489033</v>
+      </c>
+      <c r="I67" s="8">
         <f t="shared" si="23"/>
-        <v>0.36448515050489033</v>
-      </c>
-      <c r="I67" s="8">
-        <f>E67-L$57*D67-L$59</f>
         <v>0.28295982762117622</v>
       </c>
       <c r="J67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8.0066264047405758E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>12</v>
       </c>
@@ -5802,34 +5975,34 @@
         <v>103</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.8463248999999998E-3</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>8.5949507714343329E-2</v>
       </c>
       <c r="E68">
         <v>4.5999999999999996</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.3873178763379631E-3</v>
       </c>
       <c r="H68" s="7">
+        <f t="shared" si="26"/>
+        <v>0.39536773548597925</v>
+      </c>
+      <c r="I68" s="8">
         <f t="shared" si="23"/>
-        <v>0.39536773548597925</v>
-      </c>
-      <c r="I68" s="8">
-        <f>E68-L$57*D68-L$59</f>
         <v>0.3214704632178853</v>
       </c>
       <c r="J68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.10334325872152175</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -5855,7 +6028,58 @@
         <v>0.62473300723383973</v>
       </c>
     </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G75" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="9">
+        <v>141</v>
+      </c>
+      <c r="I75" s="9">
+        <v>120</v>
+      </c>
+      <c r="J75" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G76" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="9">
+        <f xml:space="preserve"> 50.33*2</f>
+        <v>100.66</v>
+      </c>
+      <c r="I76" s="9">
+        <f xml:space="preserve"> (52.01*2)</f>
+        <v>104.02</v>
+      </c>
+      <c r="J76" s="9">
+        <f>55.19*2</f>
+        <v>110.38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G77" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="9">
+        <f>1.24*2</f>
+        <v>2.48</v>
+      </c>
+      <c r="I77" s="9">
+        <f>1.21*2</f>
+        <v>2.42</v>
+      </c>
+      <c r="J77" s="9">
+        <f>1.09*2</f>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V24:W24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
